--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1271,40 +1199,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
         <v>10</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>162</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>162</v>
-      </c>
-      <c r="M4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.83636363636369</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1612,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1621,28 +1495,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>37.05311702887473</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1701,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>60.783124171003</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>21.83636363636369</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1936,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1945,22 +1819,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>37.05311702887473</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2025,22 +1899,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>60.783124171003</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>28.31599999999998</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>188.6909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1252525252525</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>168.9939393939394</v>
+        <v>155.8626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.7313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>170.784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>191.376</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>212.994</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>259.326</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>321.102</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>467.82</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>529.596</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>583.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>629.982</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>637.4949494949495</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>608.8929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>392.2262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.4383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.9131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.5191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>168.9939393939394</v>
+        <v>182.1252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>162.4282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>170.784</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>170.784</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>170.784</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>263.448</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>343.242</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>399.8699999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>436.5525858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>459.7185858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>464.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>214.9535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155.8626262626263</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>149.2969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>188.802</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>248.977292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>321.049292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3188,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.884000000000018</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76271.06239999998</v>
+        <v>73262.59249872465</v>
       </c>
       <c r="C2" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9324.258028405267</v>
+        <v>9095.293897561472</v>
       </c>
       <c r="E2" t="n">
-        <v>2370</v>
+        <v>2160</v>
       </c>
       <c r="F2" t="n">
-        <v>21228.55492980059</v>
+        <v>21838.00813806339</v>
       </c>
     </row>
   </sheetData>
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>37.6</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>60.83636363636369</v>
+        <v>56.4</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>65.8</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>75.2</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>75.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>65.8</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>28.2</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>56.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>75.2</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>25.89372513008871</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>37.05311702887473</v>
+        <v>65.8</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>75.2</v>
       </c>
       <c r="N4" t="n">
-        <v>60.783124171003</v>
+        <v>71.38312417100299</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>37.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>24.6</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>15.8</v>
       </c>
       <c r="J2" t="n">
-        <v>21.83636363636369</v>
+        <v>17.4</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>39.8</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>92.33427201305987</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>46.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>39.8</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>13.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>56.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>75.2</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>25.89372513008871</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37.05311702887473</v>
+        <v>65.8</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>18.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>51.8</v>
       </c>
       <c r="N4" t="n">
-        <v>60.783124171003</v>
+        <v>71.38312417100299</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>37.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.31599999999998</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>22.8</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.6909090909091</v>
+        <v>179.0909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626263</v>
+        <v>146.2626262626262</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7313131313131</v>
+        <v>133.1313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>142.47</v>
+        <v>130.89</v>
       </c>
       <c r="H2" t="n">
-        <v>170.784</v>
+        <v>155.244</v>
       </c>
       <c r="I2" t="n">
-        <v>191.376</v>
+        <v>170.886</v>
       </c>
       <c r="J2" t="n">
-        <v>212.994</v>
+        <v>188.112</v>
       </c>
       <c r="K2" t="n">
-        <v>259.326</v>
+        <v>227.514</v>
       </c>
       <c r="L2" t="n">
-        <v>321.102</v>
+        <v>281.37</v>
       </c>
       <c r="M2" t="n">
-        <v>390.6</v>
+        <v>341.958</v>
       </c>
       <c r="N2" t="n">
-        <v>467.82</v>
+        <v>409.278</v>
       </c>
       <c r="O2" t="n">
-        <v>529.596</v>
+        <v>500.6889292929293</v>
       </c>
       <c r="P2" t="n">
-        <v>583.65</v>
+        <v>546.8229292929293</v>
       </c>
       <c r="Q2" t="n">
-        <v>629.982</v>
+        <v>586.2249292929293</v>
       </c>
       <c r="R2" t="n">
-        <v>648</v>
+        <v>599.2929292929293</v>
       </c>
       <c r="S2" t="n">
-        <v>637.4949494949495</v>
+        <v>599.2929292929293</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929294</v>
+        <v>599.2929292929293</v>
       </c>
       <c r="U2" t="n">
-        <v>490.7111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262627</v>
+        <v>382.6262626262626</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383839</v>
+        <v>303.8383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131313</v>
+        <v>251.3131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191919</v>
+        <v>211.9191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252525</v>
+        <v>172.5252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>170.784</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>170.784</v>
+        <v>175.836</v>
       </c>
       <c r="K3" t="n">
-        <v>170.784</v>
+        <v>250.284</v>
       </c>
       <c r="L3" t="n">
-        <v>263.448</v>
+        <v>275.9187878787878</v>
       </c>
       <c r="M3" t="n">
-        <v>343.242</v>
+        <v>345.8127878787878</v>
       </c>
       <c r="N3" t="n">
-        <v>399.8699999999999</v>
+        <v>345.8127878787878</v>
       </c>
       <c r="O3" t="n">
-        <v>436.5525858585859</v>
+        <v>410.9547878787878</v>
       </c>
       <c r="P3" t="n">
-        <v>459.7185858585859</v>
+        <v>429.1707878787878</v>
       </c>
       <c r="Q3" t="n">
-        <v>485.4585858585859</v>
+        <v>449.9607878787879</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585859</v>
+        <v>477.8787878787879</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484849</v>
+        <v>454.8484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535353</v>
+        <v>205.3535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6</v>
+        <v>129.306</v>
       </c>
       <c r="K4" t="n">
-        <v>129.6</v>
+        <v>129.306</v>
       </c>
       <c r="L4" t="n">
-        <v>129.6</v>
+        <v>194.448</v>
       </c>
       <c r="M4" t="n">
-        <v>188.802</v>
+        <v>245.73</v>
       </c>
       <c r="N4" t="n">
-        <v>248.977292929293</v>
+        <v>316.399292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>321.049292929293</v>
+        <v>316.399292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2332929292929</v>
+        <v>353.623292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.2332929292929</v>
+        <v>353.623292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.929292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.929292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>38.93427201305987</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3059,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.884000000000018</v>
+        <v>15.2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73262.59249872465</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="n">
-        <v>9095.293897561472</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2160</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>21838.00813806339</v>
+        <v>23868.40359450298</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>56.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>84.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1489,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>56.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25.89372513008871</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>71.38312417100299</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>24.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>15.8</v>
+        <v>17.6</v>
       </c>
       <c r="J2" t="n">
-        <v>17.4</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.33427201305987</v>
+        <v>150</v>
       </c>
       <c r="P2" t="n">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>29.43427201306117</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1813,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>56.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25.89372513008871</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>70.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O3" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>135.2307927762477</v>
       </c>
       <c r="R3" t="n">
-        <v>28.2</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9.4</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>51.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>71.38312417100299</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="P4" t="n">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>9.4</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626262</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>130.89</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>155.244</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>170.886</v>
+        <v>213.852</v>
       </c>
       <c r="J2" t="n">
-        <v>188.112</v>
+        <v>233.157</v>
       </c>
       <c r="K2" t="n">
-        <v>227.514</v>
+        <v>233.157</v>
       </c>
       <c r="L2" t="n">
-        <v>281.37</v>
+        <v>233.157</v>
       </c>
       <c r="M2" t="n">
-        <v>341.958</v>
+        <v>381.657</v>
       </c>
       <c r="N2" t="n">
-        <v>409.278</v>
+        <v>381.657</v>
       </c>
       <c r="O2" t="n">
-        <v>500.6889292929293</v>
+        <v>530.1569999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>546.8229292929293</v>
+        <v>530.1569999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>586.2249292929293</v>
+        <v>530.1569999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929293</v>
+        <v>530.1569999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929293</v>
+        <v>570.1529999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929293</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
         <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262626</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.8383838383838</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,19 +2437,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
         <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
@@ -2461,52 +2461,52 @@
         <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>175.836</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>250.284</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>275.9187878787878</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>345.8127878787878</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>345.8127878787878</v>
+        <v>172.47</v>
       </c>
       <c r="O3" t="n">
-        <v>410.9547878787878</v>
+        <v>172.47</v>
       </c>
       <c r="P3" t="n">
-        <v>429.1707878787878</v>
+        <v>172.47</v>
       </c>
       <c r="Q3" t="n">
-        <v>449.9607878787879</v>
+        <v>306.3484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>477.8787878787879</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484849</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,19 +2514,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
         <v>120</v>
@@ -2538,49 +2538,49 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>129.306</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>129.306</v>
+        <v>149.7</v>
       </c>
       <c r="L4" t="n">
-        <v>194.448</v>
+        <v>149.7</v>
       </c>
       <c r="M4" t="n">
-        <v>245.73</v>
+        <v>149.7</v>
       </c>
       <c r="N4" t="n">
-        <v>316.399292929293</v>
+        <v>149.7</v>
       </c>
       <c r="O4" t="n">
-        <v>316.399292929293</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>353.623292929293</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>353.623292929293</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.929292929293</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.929292929293</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
         <v>192.2222222222222</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.93427201305987</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3059,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>15.2</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>112.2307927762477</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15.43427201306117</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3442,25 +3442,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3689,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>175.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3843,22 +3843,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>23868.40359450298</v>
+        <v>22929.69646431367</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>49.7</v>
       </c>
       <c r="I2" t="n">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="N2" t="n">
         <v>150</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>73.63427201306109</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.43427201306117</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>53</v>
+        <v>85.63079277624762</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.2307927762477</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>125.3831241710019</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.38312417100185</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>230.88</v>
       </c>
       <c r="I2" t="n">
-        <v>213.852</v>
+        <v>230.88</v>
       </c>
       <c r="J2" t="n">
-        <v>233.157</v>
+        <v>230.88</v>
       </c>
       <c r="K2" t="n">
-        <v>233.157</v>
+        <v>245.334</v>
       </c>
       <c r="L2" t="n">
-        <v>233.157</v>
+        <v>270.678</v>
       </c>
       <c r="M2" t="n">
-        <v>381.657</v>
+        <v>299.19</v>
       </c>
       <c r="N2" t="n">
-        <v>381.657</v>
+        <v>447.69</v>
       </c>
       <c r="O2" t="n">
-        <v>530.1569999999999</v>
+        <v>468.48</v>
       </c>
       <c r="P2" t="n">
-        <v>530.1569999999999</v>
+        <v>541.3779292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>530.1569999999999</v>
+        <v>555.8319292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>530.1569999999999</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>570.1529999999999</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>120</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>120</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>309.288</v>
       </c>
       <c r="N3" t="n">
-        <v>172.47</v>
+        <v>394.0624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>172.47</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>172.47</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>306.3484848484852</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>149.7</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>149.7</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>149.7</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>149.7</v>
+        <v>267.51</v>
       </c>
       <c r="O4" t="n">
-        <v>273.8292929292919</v>
+        <v>307.704</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.2307927762477</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3678,40 +3678,40 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>55.83427201306109</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>24.2</v>
       </c>
       <c r="T2" t="n">
-        <v>15.43427201306117</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3767,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4014,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>173.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>175.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>22.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>65.23079277624761</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,22 +4168,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>125.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.18312417100185</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.67161670045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60708656432</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22929.69758609624</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2314,31 +2064,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>108.9342720129823</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>109.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>71.63079277624769</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>45.7832241700011</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.5999000010007</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090905352</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393935632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313153</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.762</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>133.86</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>133.86</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>133.86</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>148.314</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>173.658</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>202.17</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>310.0149292928525</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>418.7169292928554</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>436.3389292928554</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>450.7929292928554</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>450.7929292928554</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292928554</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292928554</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626260894</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.8383838382099</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313128579</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919189182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>182.568</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217.02</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>287.9344848484852</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>339.6124848484852</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>373.8664848484852</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>394.0624848484852</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484853</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>148.71</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>188.904</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>211.674</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>257.61</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>302.9353919283011</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>325.9033919283011</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>357.1872929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3619,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>76.93427201298232</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3634,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>92.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3687,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.2307927762477</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3776,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.183224170001104</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3946,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3958,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4005,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4035,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4106,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -4255,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4279,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4359,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22929.69646431367</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.7</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2064,28 +2064,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>73.63427201306109</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85.63079277624762</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.38312417100185</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>230.88</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>230.88</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>230.88</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>245.334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>270.678</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>299.19</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>447.69</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>468.48</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>541.3779292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>555.8319292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>309.288</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>394.0624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>267.51</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>307.704</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3693,25 +3693,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>55.83427201306109</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>65.23079277624761</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.18312417100185</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>77388.66797673707</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>14805.93863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>22929.69646431367</v>
+        <v>21776.52755555911</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>65.7</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.7342720130612758</v>
+      </c>
+      <c r="R2" t="n">
         <v>150</v>
       </c>
-      <c r="O2" t="n">
-        <v>21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>73.63427201306109</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>43.9</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>85.63079277624762</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>67.23079277624778</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>28.38312417100185</v>
+        <v>23.38312417100178</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2685,58 +2685,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.0909090909105</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>159.3939393939415</v>
       </c>
       <c r="D2" t="n">
         <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313138</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>170.1929999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>230.88</v>
+        <v>196.4279999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>230.88</v>
+        <v>196.4279999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>230.88</v>
+        <v>215.7329999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>245.334</v>
+        <v>215.7329999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>270.678</v>
+        <v>215.7329999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>299.19</v>
+        <v>280.776</v>
       </c>
       <c r="N2" t="n">
-        <v>447.69</v>
+        <v>280.776</v>
       </c>
       <c r="O2" t="n">
-        <v>468.48</v>
+        <v>280.776</v>
       </c>
       <c r="P2" t="n">
-        <v>541.3779292929305</v>
+        <v>280.776</v>
       </c>
       <c r="Q2" t="n">
-        <v>555.8319292929305</v>
+        <v>281.5029292929306</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>430.0029292929306</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2754,7 +2754,7 @@
         <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>211.9191919191933</v>
       </c>
     </row>
     <row r="3">
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>172.5252525252517</v>
       </c>
       <c r="C3" t="n">
         <v>152.8282828282828</v>
@@ -2783,52 +2783,52 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>159.6</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>159.6</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>159.6</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>159.6</v>
       </c>
       <c r="M3" t="n">
-        <v>309.288</v>
+        <v>308.1</v>
       </c>
       <c r="N3" t="n">
-        <v>394.0624848484852</v>
+        <v>308.1</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>308.1</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>308.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>330.8699999999998</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>397.4284848484851</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>454.8484848484851</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353538</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353538</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353538</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.7474747474743</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.7474747474743</v>
       </c>
       <c r="Y3" t="n">
         <v>205.3535353535346</v>
@@ -2839,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>159.3939393939378</v>
       </c>
       <c r="C4" t="n">
         <v>139.6969696969689</v>
@@ -2863,49 +2863,49 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>200.1899999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>239.7899999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>239.7899999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>239.7899999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>267.51</v>
+        <v>239.7899999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>307.704</v>
+        <v>239.7899999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>262.9392929292917</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>282.7392929292917</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292917</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292917</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161604</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161604</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161604</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161604</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161604</v>
       </c>
       <c r="Y4" t="n">
         <v>192.2222222222222</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3381,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>37.23079277624777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3678,37 +3678,37 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
-        <v>55.83427201306109</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.2</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3838,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.38312417100177</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -4026,16 +4026,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26.73427201306128</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>94.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>22.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4091,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="N3" t="n">
-        <v>65.23079277624761</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>33.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.18312417100185</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673707</v>
+        <v>80576.4865503521</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>14805.93863177227</v>
+        <v>16153.46139577595</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>955</v>
       </c>
       <c r="F2" t="n">
-        <v>21776.52755555911</v>
+        <v>22211.57956639937</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H2" t="n">
         <v>50.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>26.5</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="M2" t="n">
-        <v>65.7</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>84.27379859198173</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7342720130612758</v>
+        <v>65</v>
       </c>
       <c r="R2" t="n">
-        <v>150</v>
+        <v>10.7</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>54.39776553407166</v>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>125.1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>67.23079277624778</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>138.6</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>75.98312417100176</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="P4" t="n">
-        <v>23.38312417100178</v>
+        <v>11.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909105</v>
+        <v>211.8909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939415</v>
+        <v>192.1939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>179.0626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313138</v>
+        <v>165.9313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="G2" t="n">
-        <v>170.1929999999999</v>
+        <v>170.323</v>
       </c>
       <c r="H2" t="n">
-        <v>196.4279999999999</v>
+        <v>220.516</v>
       </c>
       <c r="I2" t="n">
-        <v>196.4279999999999</v>
+        <v>220.516</v>
       </c>
       <c r="J2" t="n">
-        <v>215.7329999999999</v>
+        <v>220.516</v>
       </c>
       <c r="K2" t="n">
-        <v>215.7329999999999</v>
+        <v>284.866</v>
       </c>
       <c r="L2" t="n">
-        <v>215.7329999999999</v>
+        <v>379.114</v>
       </c>
       <c r="M2" t="n">
-        <v>280.776</v>
+        <v>379.114</v>
       </c>
       <c r="N2" t="n">
-        <v>280.776</v>
+        <v>496.924</v>
       </c>
       <c r="O2" t="n">
-        <v>280.776</v>
+        <v>605.0319999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>280.776</v>
+        <v>688.4630606060618</v>
       </c>
       <c r="Q2" t="n">
-        <v>281.5029292929306</v>
+        <v>752.8130606060619</v>
       </c>
       <c r="R2" t="n">
-        <v>430.0029292929306</v>
+        <v>763.4060606060618</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>721.3858585858598</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>632.0929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.9111111111112</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>415.4262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>336.638383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>284.1131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191933</v>
+        <v>244.7191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252517</v>
+        <v>205.3252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>185.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I3" t="n">
-        <v>159.6</v>
+        <v>163.888</v>
       </c>
       <c r="J3" t="n">
-        <v>159.6</v>
+        <v>180.52</v>
       </c>
       <c r="K3" t="n">
-        <v>159.6</v>
+        <v>345.256</v>
       </c>
       <c r="L3" t="n">
-        <v>159.6</v>
+        <v>399.1097878787309</v>
       </c>
       <c r="M3" t="n">
-        <v>308.1</v>
+        <v>522.9587878787881</v>
       </c>
       <c r="N3" t="n">
-        <v>308.1</v>
+        <v>522.9587878787881</v>
       </c>
       <c r="O3" t="n">
-        <v>308.1</v>
+        <v>542.3627878787881</v>
       </c>
       <c r="P3" t="n">
-        <v>308.1</v>
+        <v>542.3627878787881</v>
       </c>
       <c r="Q3" t="n">
-        <v>330.8699999999998</v>
+        <v>542.3627878787881</v>
       </c>
       <c r="R3" t="n">
-        <v>397.4284848484851</v>
+        <v>550.6787878787882</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484851</v>
+        <v>487.6484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353538</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353538</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353538</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474743</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474743</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>238.1535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939378</v>
+        <v>192.1939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="J4" t="n">
-        <v>200.1899999999999</v>
+        <v>152.8</v>
       </c>
       <c r="K4" t="n">
-        <v>239.7899999999999</v>
+        <v>152.8</v>
       </c>
       <c r="L4" t="n">
-        <v>239.7899999999999</v>
+        <v>290.014</v>
       </c>
       <c r="M4" t="n">
-        <v>239.7899999999999</v>
+        <v>290.014</v>
       </c>
       <c r="N4" t="n">
-        <v>239.7899999999999</v>
+        <v>365.2372929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>239.7899999999999</v>
+        <v>384.6412929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>262.9392929292917</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>282.7392929292917</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292917</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292917</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161604</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161604</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161604</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161604</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161604</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>225.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,46 +3348,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>108.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>89</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3437,31 +3437,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20.19776553407165</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>139.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R3" t="n">
-        <v>37.23079277624777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>75.98312417100176</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,16 +3835,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.38312417100177</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4017,25 +4017,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.373798591981753</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.73427201306128</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>94.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,37 +4079,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="M3" t="n">
-        <v>173.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,31 +4159,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>16.3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.130231609019461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80576.4865503521</v>
+        <v>73323.43111519259</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16153.46139577595</v>
+        <v>15445.85919884742</v>
       </c>
       <c r="E2" t="n">
-        <v>955</v>
+        <v>2020</v>
       </c>
       <c r="F2" t="n">
-        <v>22211.57956639937</v>
+        <v>19672.16985096533</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-30</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-18</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>49.2</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>28.8</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>110.4</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>124.2</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>106.2</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-36.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-80.40000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-108</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-90</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-72</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-30</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-18</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>-18</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>79.2</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>118.8</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>158.4</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>178.2</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>144</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>138.6</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>32.99999999999999</v>
       </c>
       <c r="Q3" t="n">
         <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>59.4</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-56.40000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-120</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-72</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-30</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-18</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-18</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>79.2</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>138.6</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>104.4</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>158.4</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>138.6</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>79.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>39.6</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-120</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-36</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1814,34 +1814,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>27.3455055606601</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.20749923477272</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.7</v>
+        <v>15.9</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>27.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>39.3</v>
       </c>
       <c r="L2" t="n">
-        <v>95.2</v>
+        <v>51.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>50.50000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>84.27379859198173</v>
+        <v>44.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>65</v>
+        <v>38.43023160901945</v>
       </c>
       <c r="R2" t="n">
-        <v>10.7</v>
+        <v>16.6</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>54.39776553407166</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>125.1</v>
+        <v>58.30000000000109</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>40.2</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>55.3</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.19999999999891</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4.345505560660102</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.20749923477272</v>
       </c>
       <c r="L4" t="n">
-        <v>138.6</v>
+        <v>55.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>42.50000000000109</v>
       </c>
       <c r="N4" t="n">
-        <v>75.98312417100176</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>19.6</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.6</v>
+        <v>9.300000000000008</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>57.6</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>83</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.4</v>
+        <v>41.00000000000109</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>36.00000000000182</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>36.00000000000182</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090909106</v>
+        <v>142.969696969697</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393939416</v>
+        <v>131.8585858585859</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262626278</v>
+        <v>126.8080808080808</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131313139</v>
+        <v>121.7575757575758</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8</v>
+        <v>116.7070707070707</v>
       </c>
       <c r="G2" t="n">
-        <v>170.323</v>
+        <v>132.4480707070707</v>
       </c>
       <c r="H2" t="n">
-        <v>220.516</v>
+        <v>159.2770707070707</v>
       </c>
       <c r="I2" t="n">
-        <v>220.516</v>
+        <v>177.9880707070707</v>
       </c>
       <c r="J2" t="n">
-        <v>220.516</v>
+        <v>197.6890707070707</v>
       </c>
       <c r="K2" t="n">
-        <v>284.866</v>
+        <v>236.5960707070707</v>
       </c>
       <c r="L2" t="n">
-        <v>379.114</v>
+        <v>287.8780707070707</v>
       </c>
       <c r="M2" t="n">
-        <v>379.114</v>
+        <v>344.7040707070707</v>
       </c>
       <c r="N2" t="n">
-        <v>496.924</v>
+        <v>407.0740707070707</v>
       </c>
       <c r="O2" t="n">
-        <v>605.0319999999999</v>
+        <v>457.0690707070708</v>
       </c>
       <c r="P2" t="n">
-        <v>688.4630606060618</v>
+        <v>501.5200707070708</v>
       </c>
       <c r="Q2" t="n">
-        <v>752.8130606060619</v>
+        <v>539.566</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606060618</v>
+        <v>556</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585858598</v>
+        <v>546.6060606060606</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292929304</v>
+        <v>488.4242424242424</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111111112</v>
+        <v>386.4040404040404</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626262645</v>
+        <v>302.5656565656566</v>
       </c>
       <c r="W2" t="n">
-        <v>336.638383838385</v>
+        <v>236.9090909090909</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313131332</v>
+        <v>195.4949494949495</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919191934</v>
+        <v>166.2020202020202</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252518</v>
+        <v>159.6848484848485</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282828</v>
+        <v>141.5030303030303</v>
       </c>
       <c r="D3" t="n">
-        <v>172.496969696969</v>
+        <v>129.3818181818182</v>
       </c>
       <c r="E3" t="n">
-        <v>172.496969696969</v>
+        <v>129.3818181818182</v>
       </c>
       <c r="F3" t="n">
-        <v>172.496969696969</v>
+        <v>129.3818181818182</v>
       </c>
       <c r="G3" t="n">
-        <v>152.8</v>
+        <v>111.2</v>
       </c>
       <c r="H3" t="n">
-        <v>152.8</v>
+        <v>111.2</v>
       </c>
       <c r="I3" t="n">
-        <v>163.888</v>
+        <v>111.2</v>
       </c>
       <c r="J3" t="n">
-        <v>180.52</v>
+        <v>158.126</v>
       </c>
       <c r="K3" t="n">
-        <v>345.256</v>
+        <v>220.694</v>
       </c>
       <c r="L3" t="n">
-        <v>399.1097878787309</v>
+        <v>291.083</v>
       </c>
       <c r="M3" t="n">
-        <v>522.9587878787881</v>
+        <v>348.8000000000011</v>
       </c>
       <c r="N3" t="n">
-        <v>522.9587878787881</v>
+        <v>388.5980000000011</v>
       </c>
       <c r="O3" t="n">
-        <v>542.3627878787881</v>
+        <v>443.3450000000011</v>
       </c>
       <c r="P3" t="n">
-        <v>542.3627878787881</v>
+        <v>457.403</v>
       </c>
       <c r="Q3" t="n">
-        <v>542.3627878787881</v>
+        <v>461.7050505050535</v>
       </c>
       <c r="R3" t="n">
-        <v>550.6787878787882</v>
+        <v>461.7050505050535</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484852</v>
+        <v>420.290909090911</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353539</v>
+        <v>299.0787878787897</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353539</v>
+        <v>299.0787878787897</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353539</v>
+        <v>299.0787878787897</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474744</v>
+        <v>226.351515151517</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474744</v>
+        <v>226.351515151517</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535346</v>
+        <v>189.9878787878788</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393939379</v>
+        <v>147.5636363636364</v>
       </c>
       <c r="C4" t="n">
-        <v>172.496969696969</v>
+        <v>129.3818181818182</v>
       </c>
       <c r="D4" t="n">
-        <v>172.496969696969</v>
+        <v>129.3818181818182</v>
       </c>
       <c r="E4" t="n">
-        <v>172.496969696969</v>
+        <v>129.3818181818182</v>
       </c>
       <c r="F4" t="n">
-        <v>172.496969696969</v>
+        <v>129.3818181818182</v>
       </c>
       <c r="G4" t="n">
-        <v>152.8</v>
+        <v>111.2</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8</v>
+        <v>111.2</v>
       </c>
       <c r="I4" t="n">
-        <v>152.8</v>
+        <v>111.2</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8</v>
+        <v>111.2</v>
       </c>
       <c r="K4" t="n">
-        <v>152.8</v>
+        <v>121.305424242425</v>
       </c>
       <c r="L4" t="n">
-        <v>290.014</v>
+        <v>176.052424242425</v>
       </c>
       <c r="M4" t="n">
-        <v>290.014</v>
+        <v>218.1274242424261</v>
       </c>
       <c r="N4" t="n">
-        <v>365.2372929292918</v>
+        <v>280.6954242424261</v>
       </c>
       <c r="O4" t="n">
-        <v>384.6412929292918</v>
+        <v>335.4424242424261</v>
       </c>
       <c r="P4" t="n">
-        <v>395.7292929292918</v>
+        <v>335.4424242424261</v>
       </c>
       <c r="Q4" t="n">
-        <v>395.7292929292918</v>
+        <v>335.4424242424261</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929292918</v>
+        <v>335.4424242424261</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929292918</v>
+        <v>335.4424242424261</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616161605</v>
+        <v>214.2303030303049</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616161605</v>
+        <v>214.2303030303049</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616161605</v>
+        <v>214.2303030303049</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616161605</v>
+        <v>214.2303030303049</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616161605</v>
+        <v>214.2303030303049</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222222222</v>
+        <v>177.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3437,25 +3437,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20.19776553407165</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>139.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>75.98312417100176</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3761,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3779,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4020,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.373798591981753</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,34 +4079,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4165,19 +4165,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>77388.67161670045</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>10661.60708656432</v>
       </c>
       <c r="E2" t="n">
         <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>22929.69646431367</v>
+        <v>22929.69758609624</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2052,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>10.2</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2073,22 +2323,22 @@
         <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>108.9342720129823</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>109.8</v>
       </c>
       <c r="P2" t="n">
-        <v>73.63427201306109</v>
+        <v>17.8</v>
       </c>
       <c r="Q2" t="n">
         <v>14.6</v>
       </c>
       <c r="R2" t="n">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>63.2</v>
       </c>
       <c r="J3" t="n">
         <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>71.63079277624769</v>
       </c>
       <c r="L3" t="n">
         <v>52.2</v>
@@ -2150,7 +2400,7 @@
         <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>85.63079277624762</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
         <v>40.6</v>
@@ -2215,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
         <v>23.2</v>
@@ -2230,16 +2480,16 @@
         <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>45.7832241700011</v>
       </c>
       <c r="P4" t="n">
-        <v>28.38312417100185</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>31.5999000010007</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2685,76 +2935,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.0909090905352</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>159.3939393935632</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>146.2626262626198</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313153</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>123.762</v>
       </c>
       <c r="H2" t="n">
-        <v>230.88</v>
+        <v>133.86</v>
       </c>
       <c r="I2" t="n">
-        <v>230.88</v>
+        <v>133.86</v>
       </c>
       <c r="J2" t="n">
-        <v>230.88</v>
+        <v>133.86</v>
       </c>
       <c r="K2" t="n">
-        <v>245.334</v>
+        <v>148.314</v>
       </c>
       <c r="L2" t="n">
-        <v>270.678</v>
+        <v>173.658</v>
       </c>
       <c r="M2" t="n">
-        <v>299.19</v>
+        <v>202.17</v>
       </c>
       <c r="N2" t="n">
-        <v>447.69</v>
+        <v>310.0149292928525</v>
       </c>
       <c r="O2" t="n">
-        <v>468.48</v>
+        <v>418.7169292928554</v>
       </c>
       <c r="P2" t="n">
-        <v>541.3779292929305</v>
+        <v>436.3389292928554</v>
       </c>
       <c r="Q2" t="n">
-        <v>555.8319292929305</v>
+        <v>450.7929292928554</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>450.7929292928554</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>599.2929292928554</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>599.2929292928554</v>
       </c>
       <c r="U2" t="n">
         <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>382.6262626260894</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>303.8383838382099</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>251.3131313128579</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>211.9191919189182</v>
       </c>
     </row>
     <row r="3">
@@ -2783,19 +3033,19 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>182.568</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>217.02</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>287.9344848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>339.6124848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>309.288</v>
+        <v>373.8664848484852</v>
       </c>
       <c r="N3" t="n">
         <v>394.0624848484852</v>
@@ -2807,7 +3057,7 @@
         <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>437.6224848484853</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +3113,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>125.742</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>148.71</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>188.904</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>211.674</v>
       </c>
       <c r="N4" t="n">
-        <v>267.51</v>
+        <v>257.61</v>
       </c>
       <c r="O4" t="n">
-        <v>307.704</v>
+        <v>302.9353919283011</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>325.9033919283011</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>357.1872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3354,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3369,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>76.93427201298232</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3384,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>92.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3437,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25.2307927762477</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3526,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.183224170001104</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3672,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3693,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
-        <v>55.83427201306109</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.2</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3835,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4005,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4029,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>22.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4094,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>65.23079277624761</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4177,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.18312417100185</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,22 +523,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -573,28 +571,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>65.58845478372611</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>61.20999999996101</v>
       </c>
     </row>
     <row r="3">
@@ -656,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>61.20999999993916</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -688,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>61.20999999859309</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -727,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>61.20999999972044</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>108.5630000002748</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80576.48655034851</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16153.46139576637</v>
-      </c>
-      <c r="E2" t="n">
-        <v>955</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22282.01646215637</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1200,10 +808,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10296</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>5229</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,34 +1486,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>689.8320000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1935.648000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3191.760000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3974.256000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4087.512000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3603.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2707.848</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1626.767999999949</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>648.6480000000294</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.592</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2049,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>308.8800000000147</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1501.623915922136</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5875.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5985</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>607.4640000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.184</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2129,37 +1637,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>463.3200000000148</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.559999999479</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6053.040000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6207.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6209.280000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2153.938181818706</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1018.260000000015</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2305,34 +1813,34 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1159.868000000503</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2625.090000003214</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3583.676000000802</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3619.207000000788</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4000000006519</v>
+        <v>3043.730000001421</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7000000002561</v>
+        <v>2008.223000004289</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>706.0579999987967</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2000000007218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000046567</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.57379858981383</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2379,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>997.623915922136</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5229</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.999999999988688</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>98.29776553290529</v>
+        <v>5229</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2447,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-7.508788257837296e-08</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2462,31 +1970,31 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5229</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.615443719774803e-11</v>
+        <v>5229</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5229</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1214.818181818706</v>
       </c>
       <c r="N4" t="n">
-        <v>158.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>84.98312417107422</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1089.11</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1013.86</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>939.4100000005757</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>873.7699999999476</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>855.2299999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>54.66299999850253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>347.3969999969325</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1140.298</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1156.309999999902</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1019.060000000006</v>
       </c>
       <c r="S2" t="n">
-        <v>41.60000000000001</v>
+        <v>1021.610000000006</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>1224.171545216506</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1256.8</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1224.35</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1175.589999999734</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1017.729999999883</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>1003.25</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>311.7699999966094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>212.8209999986262</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.3760000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>62.39999999881256</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1042.290000000055</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.499999927387</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>905.7700000014069</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>397.9149999990905</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1197.010000000279</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1160.546999999493</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1459.770000000008</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090907452</v>
+        <v>7957.879797978303</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393937284</v>
+        <v>6933.778787877292</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262624623</v>
+        <v>5984.879797977721</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131311962</v>
+        <v>5102.283838381814</v>
       </c>
       <c r="F2" t="n">
-        <v>152.7999999999302</v>
+        <v>4238.415151513127</v>
       </c>
       <c r="G2" t="n">
-        <v>152.7999999999302</v>
+        <v>4183.2</v>
       </c>
       <c r="H2" t="n">
-        <v>152.7999999999302</v>
+        <v>5331.469319999982</v>
       </c>
       <c r="I2" t="n">
-        <v>152.7999999999302</v>
+        <v>7930.308420003164</v>
       </c>
       <c r="J2" t="n">
-        <v>152.7999999999302</v>
+        <v>11478.14766000396</v>
       </c>
       <c r="K2" t="n">
-        <v>152.7999999999302</v>
+        <v>15061.16259000474</v>
       </c>
       <c r="L2" t="n">
-        <v>266.0560000005756</v>
+        <v>18074.45529000614</v>
       </c>
       <c r="M2" t="n">
-        <v>393.4690000008291</v>
+        <v>20062.59606001039</v>
       </c>
       <c r="N2" t="n">
-        <v>535.039000000829</v>
+        <v>20761.59348001183</v>
       </c>
       <c r="O2" t="n">
-        <v>643.1470000015436</v>
+        <v>20410.68741940887</v>
       </c>
       <c r="P2" t="n">
-        <v>737.0980000020046</v>
+        <v>19258.87125779271</v>
       </c>
       <c r="Q2" t="n">
-        <v>763.4060606059203</v>
+        <v>18090.88135880281</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606059203</v>
+        <v>17061.5278234495</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585857182</v>
+        <v>16029.5985305202</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292927889</v>
+        <v>14793.0616161601</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111109237</v>
+        <v>13523.56666666515</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626260752</v>
+        <v>12286.84949494803</v>
       </c>
       <c r="W2" t="n">
-        <v>336.6383838382434</v>
+        <v>11099.38484848365</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313129439</v>
+        <v>10071.37474747329</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.719191919028</v>
+        <v>9057.990909089414</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418.646464647735</v>
+        <v>8516.963535354877</v>
       </c>
       <c r="C3" t="n">
-        <v>398.9494949507182</v>
+        <v>7697.771616162955</v>
       </c>
       <c r="D3" t="n">
-        <v>385.8181818194521</v>
+        <v>6946.761515152854</v>
       </c>
       <c r="E3" t="n">
-        <v>385.8181818194521</v>
+        <v>6631.842323237087</v>
       </c>
       <c r="F3" t="n">
-        <v>385.8181818194521</v>
+        <v>6631.842323237087</v>
       </c>
       <c r="G3" t="n">
-        <v>366.1212121224354</v>
+        <v>7619.490000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>366.1212121224354</v>
+        <v>7619.490000000002</v>
       </c>
       <c r="I3" t="n">
-        <v>370.0812121224354</v>
+        <v>12796.2</v>
       </c>
       <c r="J3" t="n">
-        <v>370.0812121224354</v>
+        <v>12796.2</v>
       </c>
       <c r="K3" t="n">
-        <v>378.0012121224242</v>
+        <v>12796.2</v>
       </c>
       <c r="L3" t="n">
-        <v>529.4712121224242</v>
+        <v>12796.2</v>
       </c>
       <c r="M3" t="n">
-        <v>626.7860000000004</v>
+        <v>17972.91</v>
       </c>
       <c r="N3" t="n">
-        <v>626.7860000000004</v>
+        <v>17972.91</v>
       </c>
       <c r="O3" t="n">
-        <v>764.0000000000003</v>
+        <v>17972.91</v>
       </c>
       <c r="P3" t="n">
-        <v>764.0000000000003</v>
+        <v>17972.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>764.0000000000003</v>
+        <v>17757.93929293069</v>
       </c>
       <c r="R3" t="n">
-        <v>764.0000000000003</v>
+        <v>16857.55949495089</v>
       </c>
       <c r="S3" t="n">
-        <v>700.9696969708967</v>
+        <v>15897.15545454685</v>
       </c>
       <c r="T3" t="n">
-        <v>569.6565656577654</v>
+        <v>14844.33727272861</v>
       </c>
       <c r="U3" t="n">
-        <v>569.6565656577654</v>
+        <v>13633.73121212255</v>
       </c>
       <c r="V3" t="n">
-        <v>569.6565656577654</v>
+        <v>12448.88272727406</v>
       </c>
       <c r="W3" t="n">
-        <v>490.8686868699336</v>
+        <v>11307.67060606195</v>
       </c>
       <c r="X3" t="n">
-        <v>490.8686868699336</v>
+        <v>10320.29686868821</v>
       </c>
       <c r="Y3" t="n">
-        <v>451.4747474760178</v>
+        <v>9405.145353536696</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393939636</v>
+        <v>7629.063636363645</v>
       </c>
       <c r="C4" t="n">
-        <v>172.4969696969469</v>
+        <v>6531.871717171029</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4969696969469</v>
+        <v>5500.053535354356</v>
       </c>
       <c r="E4" t="n">
-        <v>172.4969696969469</v>
+        <v>4585.134343433743</v>
       </c>
       <c r="F4" t="n">
-        <v>172.4969696969469</v>
+        <v>4183.2</v>
       </c>
       <c r="G4" t="n">
-        <v>152.7999999999593</v>
+        <v>4183.2</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7999999999593</v>
+        <v>4183.2</v>
       </c>
       <c r="I4" t="n">
-        <v>152.7999999999593</v>
+        <v>9359.909999999485</v>
       </c>
       <c r="J4" t="n">
-        <v>152.7999999999593</v>
+        <v>9359.909999999485</v>
       </c>
       <c r="K4" t="n">
-        <v>152.7999999999302</v>
+        <v>14536.61999999949</v>
       </c>
       <c r="L4" t="n">
-        <v>152.7999999999302</v>
+        <v>19713.32999999949</v>
       </c>
       <c r="M4" t="n">
-        <v>152.7999999999302</v>
+        <v>20916</v>
       </c>
       <c r="N4" t="n">
-        <v>309.6159999999301</v>
+        <v>20916</v>
       </c>
       <c r="O4" t="n">
-        <v>393.7492929292936</v>
+        <v>20916</v>
       </c>
       <c r="P4" t="n">
-        <v>393.7492929292936</v>
+        <v>20916</v>
       </c>
       <c r="Q4" t="n">
-        <v>395.7292929292936</v>
+        <v>19639.89898989899</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929292936</v>
+        <v>18430.7979797977</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929292936</v>
+        <v>17258.5282828283</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616161624</v>
+        <v>15819.5484848485</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616161624</v>
+        <v>14345.03333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616161624</v>
+        <v>12831.63939393939</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616161624</v>
+        <v>11360.47777777778</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616161624</v>
+        <v>10040.3464646455</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222222465</v>
+        <v>8791.033333333333</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>10.40000000000003</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4000000002561</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.97379858981386</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6924,22 +6432,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97.29776553290534</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7004,13 +6512,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>84.98312417107425</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7156,34 +6664,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.800000003073251</v>
       </c>
       <c r="P2" t="n">
-        <v>6.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -7192,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7340,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3375029.362397615</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>31800</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>428008.1896563811</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>184665</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.59999999999998</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-1.062977260627267e-11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>24.39999999999995</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19.59999999999998</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.39999999999998</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>961659.5024612746</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 10.xlsx
+++ b/model/Output Files/Year 10.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>122.4</v>
+        <v>77.28997478742019</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -562,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>122.4</v>
+        <v>110.9999999972412</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>65.58845478372611</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="W2" t="n">
-        <v>122.4</v>
+        <v>111.0000000017331</v>
       </c>
       <c r="X2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.20999999996101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>61.20999999993916</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -677,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.50999999999429</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -686,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>61.20999999859309</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>84.16300000005953</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -725,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.20999999972044</v>
+        <v>111</v>
       </c>
       <c r="S4" t="n">
-        <v>108.5630000002748</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>55.50999999959552</v>
       </c>
       <c r="U4" t="n">
-        <v>61.20999999999185</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -743,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>55.51000000038386</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384593.012231747</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>429690.6760838254</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182785</v>
+      </c>
+      <c r="F2" t="n">
+        <v>976296.6991329195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -808,10 +875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10296</v>
+        <v>10196</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -824,13 +891,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>5229</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>689.8320000000001</v>
+        <v>683.1320000000294</v>
       </c>
       <c r="H2" t="n">
-        <v>1935.648000000059</v>
+        <v>1916.848000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>3191.760000000001</v>
+        <v>3160.76</v>
       </c>
       <c r="J2" t="n">
-        <v>3974.256000000001</v>
+        <v>3935.656000000118</v>
       </c>
       <c r="K2" t="n">
-        <v>4087.512000000001</v>
+        <v>4047.812000000119</v>
       </c>
       <c r="L2" t="n">
-        <v>3603.6</v>
+        <v>3568.6</v>
       </c>
       <c r="M2" t="n">
-        <v>2707.848</v>
+        <v>2681.548</v>
       </c>
       <c r="N2" t="n">
-        <v>1626.767999999949</v>
+        <v>1610.968000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>648.6480000000294</v>
+        <v>642.3480000000293</v>
       </c>
       <c r="P2" t="n">
-        <v>20.592</v>
+        <v>20.39200000000092</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308.8800000000147</v>
+        <v>305.8800000000147</v>
       </c>
       <c r="F3" t="n">
         <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>1501.623915922136</v>
+        <v>3487.032</v>
       </c>
       <c r="H3" t="n">
         <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>5875.8</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
         <v>672</v>
@@ -1578,13 +1695,13 @@
         <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>798</v>
+        <v>4631.479189469059</v>
       </c>
       <c r="M3" t="n">
-        <v>5985</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>756</v>
+        <v>5526.232</v>
       </c>
       <c r="O3" t="n">
         <v>739.2</v>
@@ -1593,10 +1710,10 @@
         <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>607.4640000000001</v>
+        <v>601.5640000000293</v>
       </c>
       <c r="R3" t="n">
-        <v>41.184</v>
+        <v>40.78400000000183</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,28 +1754,28 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>463.3200000000148</v>
+        <v>458.8200000000148</v>
       </c>
       <c r="G4" t="n">
-        <v>677.88</v>
+        <v>677.8800000000385</v>
       </c>
       <c r="H4" t="n">
-        <v>805.559999999479</v>
+        <v>4894.079999996594</v>
       </c>
       <c r="I4" t="n">
         <v>6053.040000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>850.9200000000001</v>
+        <v>3961.942181821683</v>
       </c>
       <c r="K4" t="n">
-        <v>6207.6</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>6209.280000000001</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>2153.938181818706</v>
+        <v>5412.396000000002</v>
       </c>
       <c r="N4" t="n">
         <v>940.8</v>
@@ -1667,7 +1784,7 @@
         <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1018.260000000015</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1801,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.515631203240136e-08</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1159.868000000503</v>
+        <v>1164.068000000503</v>
       </c>
       <c r="I2" t="n">
-        <v>2625.090000003214</v>
+        <v>2632.090000001124</v>
       </c>
       <c r="J2" t="n">
-        <v>3583.676000000802</v>
+        <v>3592.076000000801</v>
       </c>
       <c r="K2" t="n">
-        <v>3619.207000000788</v>
+        <v>3627.507000000481</v>
       </c>
       <c r="L2" t="n">
-        <v>3043.730000001421</v>
+        <v>3051.730000001183</v>
       </c>
       <c r="M2" t="n">
-        <v>2008.223000004289</v>
+        <v>2013.923000004289</v>
       </c>
       <c r="N2" t="n">
-        <v>706.0579999987967</v>
+        <v>709.2579999999999</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1875,25 +1992,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1.175794750452042e-08</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-4.075900505995378e-09</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>997.623915922136</v>
+        <v>2983.032</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5229</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1902,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3833.479189469024</v>
       </c>
       <c r="M3" t="n">
-        <v>5229</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4770.232</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1938,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-1.871218964925221e-08</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1955,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.508788257837296e-08</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1967,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4088.519999995889</v>
       </c>
       <c r="I4" t="n">
         <v>5229</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3111.022181821683</v>
       </c>
       <c r="K4" t="n">
-        <v>5229</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5229</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1214.818181818706</v>
+        <v>4473.276000000003</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1089.11</v>
+        <v>1100.509999999942</v>
       </c>
       <c r="C2" t="n">
-        <v>1013.86</v>
+        <v>1025.259999999965</v>
       </c>
       <c r="D2" t="n">
-        <v>939.4100000005757</v>
+        <v>950.810000034921</v>
       </c>
       <c r="E2" t="n">
-        <v>873.7699999999476</v>
+        <v>920.1699999999628</v>
       </c>
       <c r="F2" t="n">
-        <v>855.2299999999999</v>
+        <v>866.63</v>
       </c>
       <c r="G2" t="n">
-        <v>54.66299999850253</v>
+        <v>98.47302521108031</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>347.3969999969325</v>
+        <v>358.0969999996562</v>
       </c>
       <c r="P2" t="n">
-        <v>1140.298</v>
+        <v>1140.497999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>1156.309999999902</v>
+        <v>1080.309999999884</v>
       </c>
       <c r="R2" t="n">
-        <v>1019.060000000006</v>
+        <v>1030.460000000324</v>
       </c>
       <c r="S2" t="n">
-        <v>1021.610000000006</v>
+        <v>1033.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1224.171545216506</v>
+        <v>1178.759999999606</v>
       </c>
       <c r="U2" t="n">
-        <v>1256.8</v>
+        <v>1268.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1224.35</v>
+        <v>1235.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1175.589999999734</v>
+        <v>1186.989999998142</v>
       </c>
       <c r="X2" t="n">
-        <v>1017.729999999883</v>
+        <v>1029.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>1003.25</v>
+        <v>953.4600000003111</v>
       </c>
     </row>
     <row r="3">
@@ -2199,13 +2316,13 @@
         <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>811</v>
+        <v>810.999999991542</v>
       </c>
       <c r="D3" t="n">
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>311.7699999966094</v>
+        <v>345.7699999962788</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,16 +2358,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.8209999986262</v>
+        <v>245.7209999984725</v>
       </c>
       <c r="R3" t="n">
-        <v>891.3760000000001</v>
+        <v>891.7759999999982</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1042.290000000055</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
         <v>1198.5</v>
@@ -2262,7 +2379,7 @@
         <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>977.5</v>
+        <v>977.4999999845817</v>
       </c>
       <c r="Y3" t="n">
         <v>906</v>
@@ -2273,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1150.35</v>
+        <v>1094.840000000017</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.22</v>
+        <v>1086.220000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>1021.499999927387</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>905.7700000014069</v>
+        <v>1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>397.9149999990905</v>
+        <v>313.2520000000015</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1197.010000000279</v>
+        <v>1147.219999999782</v>
       </c>
       <c r="S4" t="n">
-        <v>1160.546999999493</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.59</v>
+        <v>1369.080000000404</v>
       </c>
       <c r="U4" t="n">
-        <v>1459.770000000008</v>
+        <v>1520.979999999905</v>
       </c>
       <c r="V4" t="n">
         <v>1498.26</v>
@@ -2339,10 +2456,10 @@
         <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>1306.93</v>
+        <v>1251.419999999616</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.82</v>
+        <v>1236.820000000079</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7957.879797978303</v>
+        <v>8083.546490112633</v>
       </c>
       <c r="C2" t="n">
-        <v>6933.778787877292</v>
+        <v>7047.930328496507</v>
       </c>
       <c r="D2" t="n">
-        <v>5984.879797977721</v>
+        <v>6087.516187081897</v>
       </c>
       <c r="E2" t="n">
-        <v>5102.283838381814</v>
+        <v>5158.051540617253</v>
       </c>
       <c r="F2" t="n">
-        <v>4238.415151513127</v>
+        <v>4282.667702233414</v>
       </c>
       <c r="G2" t="n">
         <v>4183.2</v>
       </c>
       <c r="H2" t="n">
-        <v>5331.469319999982</v>
+        <v>5335.627320000498</v>
       </c>
       <c r="I2" t="n">
-        <v>7930.308420003164</v>
+        <v>7941.396420001645</v>
       </c>
       <c r="J2" t="n">
-        <v>11478.14766000396</v>
+        <v>11497.55166000244</v>
       </c>
       <c r="K2" t="n">
-        <v>15061.16259000474</v>
+        <v>15088.78359000322</v>
       </c>
       <c r="L2" t="n">
-        <v>18074.45529000614</v>
+        <v>18109.99629000439</v>
       </c>
       <c r="M2" t="n">
-        <v>20062.59606001039</v>
+        <v>20103.78006000863</v>
       </c>
       <c r="N2" t="n">
-        <v>20761.59348001183</v>
+        <v>20805.94548000827</v>
       </c>
       <c r="O2" t="n">
-        <v>20410.68741940887</v>
+        <v>20444.23133859448</v>
       </c>
       <c r="P2" t="n">
-        <v>19258.87125779271</v>
+        <v>19292.2131567763</v>
       </c>
       <c r="Q2" t="n">
-        <v>18090.88135880281</v>
+        <v>18200.99093455408</v>
       </c>
       <c r="R2" t="n">
-        <v>17061.5278234495</v>
+        <v>17160.12224768539</v>
       </c>
       <c r="S2" t="n">
-        <v>16029.5985305202</v>
+        <v>16116.67780324064</v>
       </c>
       <c r="T2" t="n">
-        <v>14793.0616161601</v>
+        <v>14926.01113657404</v>
       </c>
       <c r="U2" t="n">
-        <v>13523.56666666515</v>
+        <v>13645.00103556538</v>
       </c>
       <c r="V2" t="n">
-        <v>12286.84949494803</v>
+        <v>12396.76871233306</v>
       </c>
       <c r="W2" t="n">
-        <v>11099.38484848365</v>
+        <v>11197.78891435501</v>
       </c>
       <c r="X2" t="n">
-        <v>10071.37474747329</v>
+        <v>10158.26366182976</v>
       </c>
       <c r="Y2" t="n">
-        <v>9057.990909089414</v>
+        <v>9195.172752738838</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8516.963535354877</v>
+        <v>6102.664646464646</v>
       </c>
       <c r="C3" t="n">
-        <v>7697.771616162955</v>
+        <v>5283.472727272963</v>
       </c>
       <c r="D3" t="n">
-        <v>6946.761515152854</v>
+        <v>4532.462626262793</v>
       </c>
       <c r="E3" t="n">
-        <v>6631.842323237087</v>
+        <v>4183.2</v>
       </c>
       <c r="F3" t="n">
-        <v>6631.842323237087</v>
+        <v>4183.2</v>
       </c>
       <c r="G3" t="n">
-        <v>7619.490000000002</v>
+        <v>7136.40168</v>
       </c>
       <c r="H3" t="n">
-        <v>7619.490000000002</v>
+        <v>7136.40168</v>
       </c>
       <c r="I3" t="n">
-        <v>12796.2</v>
+        <v>7136.40168</v>
       </c>
       <c r="J3" t="n">
-        <v>12796.2</v>
+        <v>7136.40168</v>
       </c>
       <c r="K3" t="n">
-        <v>12796.2</v>
+        <v>7136.401680000035</v>
       </c>
       <c r="L3" t="n">
-        <v>12796.2</v>
+        <v>10931.54607757437</v>
       </c>
       <c r="M3" t="n">
-        <v>17972.91</v>
+        <v>10931.54607757437</v>
       </c>
       <c r="N3" t="n">
-        <v>17972.91</v>
+        <v>15654.07575757437</v>
       </c>
       <c r="O3" t="n">
-        <v>17972.91</v>
+        <v>15654.07575757437</v>
       </c>
       <c r="P3" t="n">
-        <v>17972.91</v>
+        <v>15654.07575757437</v>
       </c>
       <c r="Q3" t="n">
-        <v>17757.93929293069</v>
+        <v>15405.87272727272</v>
       </c>
       <c r="R3" t="n">
-        <v>16857.55949495089</v>
+        <v>14505.08888888889</v>
       </c>
       <c r="S3" t="n">
-        <v>15897.15545454685</v>
+        <v>13544.68484848485</v>
       </c>
       <c r="T3" t="n">
-        <v>14844.33727272861</v>
+        <v>12430.03838383838</v>
       </c>
       <c r="U3" t="n">
-        <v>13633.73121212255</v>
+        <v>11219.43232323233</v>
       </c>
       <c r="V3" t="n">
-        <v>12448.88272727406</v>
+        <v>10034.58383838384</v>
       </c>
       <c r="W3" t="n">
-        <v>11307.67060606195</v>
+        <v>8893.371717171334</v>
       </c>
       <c r="X3" t="n">
-        <v>10320.29686868821</v>
+        <v>7905.997979797979</v>
       </c>
       <c r="Y3" t="n">
-        <v>9405.145353536696</v>
+        <v>6990.846464646464</v>
       </c>
     </row>
     <row r="4">
@@ -2597,16 +2714,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7629.063636363645</v>
+        <v>7640.727272727213</v>
       </c>
       <c r="C4" t="n">
-        <v>6531.871717171029</v>
+        <v>6543.535353535294</v>
       </c>
       <c r="D4" t="n">
-        <v>5500.053535354356</v>
+        <v>5511.717171716728</v>
       </c>
       <c r="E4" t="n">
-        <v>4585.134343433743</v>
+        <v>4499.616161615293</v>
       </c>
       <c r="F4" t="n">
         <v>4183.2</v>
@@ -2615,19 +2732,19 @@
         <v>4183.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4183.2</v>
+        <v>8230.834799996534</v>
       </c>
       <c r="I4" t="n">
-        <v>9359.909999999485</v>
+        <v>13407.54479999653</v>
       </c>
       <c r="J4" t="n">
-        <v>9359.909999999485</v>
+        <v>16487.45676</v>
       </c>
       <c r="K4" t="n">
-        <v>14536.61999999949</v>
+        <v>16487.45676</v>
       </c>
       <c r="L4" t="n">
-        <v>19713.32999999949</v>
+        <v>16487.45676</v>
       </c>
       <c r="M4" t="n">
         <v>20916</v>
@@ -2642,31 +2759,31 @@
         <v>20916</v>
       </c>
       <c r="Q4" t="n">
-        <v>19639.89898989899</v>
+        <v>19604.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>18430.7979797977</v>
+        <v>18445.73737373777</v>
       </c>
       <c r="S4" t="n">
-        <v>17258.5282828283</v>
+        <v>17163.80808080848</v>
       </c>
       <c r="T4" t="n">
-        <v>15819.5484848485</v>
+        <v>15780.89898989898</v>
       </c>
       <c r="U4" t="n">
-        <v>14345.03333333333</v>
+        <v>14244.55555555555</v>
       </c>
       <c r="V4" t="n">
-        <v>12831.63939393939</v>
+        <v>12731.16161616157</v>
       </c>
       <c r="W4" t="n">
-        <v>11360.47777777778</v>
+        <v>11260</v>
       </c>
       <c r="X4" t="n">
-        <v>10040.3464646455</v>
+        <v>9995.939393939732</v>
       </c>
       <c r="Y4" t="n">
-        <v>8791.033333333333</v>
+        <v>8746.626262626209</v>
       </c>
     </row>
     <row r="5">
@@ -6670,7 +6787,7 @@
         <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0800000020536</v>
+        <v>100.0799999999999</v>
       </c>
       <c r="J2" t="n">
         <v>130.7600000002421</v>
@@ -6688,7 +6805,7 @@
         <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>4.800000003073251</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.000000003376044</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.6000000013737</v>
+        <v>11.60000000133063</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3375029.362397615</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>31800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>428008.1896563811</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>184665</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>961659.5024612746</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
